--- a/html/data/Hoa/Crystal Palace/Player.xlsx
+++ b/html/data/Hoa/Crystal Palace/Player.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -53,19 +53,201 @@
   </si>
   <si>
     <t>red card</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Julian Speroni</t>
+  </si>
+  <si>
+    <t>Goalkeeper</t>
+  </si>
+  <si>
+    <t>18/05/1979</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>http://www.cpfc.co.uk/cms_images/player/1002-speroni61-1926364_231x264.jpg</t>
+  </si>
+  <si>
+    <t>Joel Ward</t>
+  </si>
+  <si>
+    <t>Defender</t>
+  </si>
+  <si>
+    <t>http://www.cpfc.co.uk/cms_images/player/1007-ward61-1926365_231x264.jpg</t>
+  </si>
+  <si>
+    <t>29/10/1989</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Adrian Mariappa</t>
+  </si>
+  <si>
+    <t>http://www.cpfc.co.uk/cms_images/player/1012-mariappa61-1926367_231x264.jpg</t>
+  </si>
+  <si>
+    <t>Brede Hangeland</t>
+  </si>
+  <si>
+    <t>20/06/1981</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>http://www.cpfc.co.uk/cms_images/player/1101-hangeland61-1926395_231x264.jpg</t>
+  </si>
+  <si>
+    <t>Scott Dann</t>
+  </si>
+  <si>
+    <t>14/02/1987</t>
+  </si>
+  <si>
+    <t>http://www.cpfc.co.uk/cms_images/player/1028-dann61-1926373_231x264.jpg</t>
+  </si>
+  <si>
+    <t>Yannick Bolasie</t>
+  </si>
+  <si>
+    <t>Midfielder</t>
+  </si>
+  <si>
+    <t>24/05/1989</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>http://www.cpfc.co.uk/cms_images/player/1094-bolasie61-1926393_231x264.jpg</t>
+  </si>
+  <si>
+    <t>Kevin Doyle</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>18/09/1983</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>http://www.cpfc.co.uk/cms_images/player/1084-doyle61-1926390_231x264.jpg</t>
+  </si>
+  <si>
+    <t>Fraizer Campbell</t>
+  </si>
+  <si>
+    <t>13/09/1987</t>
+  </si>
+  <si>
+    <t>http://www.cpfc.co.uk/cms_images/player/1044-campbell61-1926377_231x264.jpg</t>
+  </si>
+  <si>
+    <t>Wilfried Zaha</t>
+  </si>
+  <si>
+    <t>http://www.cpfc.co.uk/cms_images/player/1181-zaha61-1926398_231x264.jpg</t>
+  </si>
+  <si>
+    <t>Wayne Hennessey</t>
+  </si>
+  <si>
+    <t>24/01/1987</t>
+  </si>
+  <si>
+    <t>Wales</t>
+  </si>
+  <si>
+    <t>http://www.cpfc.co.uk/cms_images/player/1106-hennessey61-1926396_231x264.jpg</t>
+  </si>
+  <si>
+    <t>Jerome Thomas</t>
+  </si>
+  <si>
+    <t>23/03/1983</t>
+  </si>
+  <si>
+    <t>http://www.cpfc.co.uk/cms_images/player/1098-thomas61-1926394_231x264.jpg</t>
+  </si>
+  <si>
+    <t>Mile Jedinak</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>http://www.cpfc.co.uk/cms_images/player/1038-jedinak61-1933962_231x264.jpg</t>
+  </si>
+  <si>
+    <t>Dwight Gayle</t>
+  </si>
+  <si>
+    <t>20/10/1990</t>
+  </si>
+  <si>
+    <t>http://www.cpfc.co.uk/cms_images/player/1054-gayle61-1926378_231x264.jpg</t>
+  </si>
+  <si>
+    <t>Andrew Johnson</t>
+  </si>
+  <si>
+    <t>http://www.cpfc.co.uk/cms_images/player/1088-johnson61-1926392_231x264.jpg</t>
+  </si>
+  <si>
+    <t>James McArthur</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>http://www.cpfc.co.uk/cms_images/player/1071-mcarthur61-1926387_231x264.jpg</t>
+  </si>
+  <si>
+    <t>Marouane Chamakh</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>http://www.cpfc.co.uk/cms_images/player/1033-chamakh61-1926374_231x264.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -106,14 +288,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,20 +604,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +661,686 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>35</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1.86</v>
+      </c>
+      <c r="I2" s="3">
+        <v>87</v>
+      </c>
+      <c r="J2" s="3">
+        <v>59</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="I3">
+        <v>80</v>
+      </c>
+      <c r="J3" s="3">
+        <v>55</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>4</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4">
+        <v>31481</v>
+      </c>
+      <c r="F4">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="I4" s="3">
+        <v>70</v>
+      </c>
+      <c r="J4" s="3">
+        <v>78</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>15</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="I5">
+        <v>85</v>
+      </c>
+      <c r="J5" s="3">
+        <v>227</v>
+      </c>
+      <c r="K5" s="5">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5">
+        <v>21</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1.88</v>
+      </c>
+      <c r="I6">
+        <v>76</v>
+      </c>
+      <c r="J6" s="3">
+        <v>104</v>
+      </c>
+      <c r="K6" s="5">
+        <v>4</v>
+      </c>
+      <c r="L6" s="5">
+        <v>15</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.88</v>
+      </c>
+      <c r="I7">
+        <v>84</v>
+      </c>
+      <c r="J7" s="3">
+        <v>45</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
+        <v>3</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>31</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="I8">
+        <v>79</v>
+      </c>
+      <c r="J8" s="3">
+        <v>164</v>
+      </c>
+      <c r="K8" s="5">
+        <v>37</v>
+      </c>
+      <c r="L8" s="5">
+        <v>11</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9">
+        <v>27</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="I9">
+        <v>82</v>
+      </c>
+      <c r="J9" s="3">
+        <v>120</v>
+      </c>
+      <c r="K9" s="5">
+        <v>16</v>
+      </c>
+      <c r="L9" s="5">
+        <v>16</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4">
+        <v>33888</v>
+      </c>
+      <c r="F10">
+        <v>22</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="I10" s="3">
+        <v>66</v>
+      </c>
+      <c r="J10" s="3">
+        <v>23</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11">
+        <v>27</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1.83</v>
+      </c>
+      <c r="I11">
+        <v>73</v>
+      </c>
+      <c r="J11" s="3">
+        <v>73</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="I12">
+        <v>79</v>
+      </c>
+      <c r="J12" s="3">
+        <v>154</v>
+      </c>
+      <c r="K12" s="5">
+        <v>11</v>
+      </c>
+      <c r="L12" s="5">
+        <v>15</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4">
+        <v>30749</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1.89</v>
+      </c>
+      <c r="I13" s="3">
+        <v>81</v>
+      </c>
+      <c r="J13" s="3">
+        <v>53</v>
+      </c>
+      <c r="K13" s="5">
+        <v>6</v>
+      </c>
+      <c r="L13" s="5">
+        <v>11</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1.77</v>
+      </c>
+      <c r="I14">
+        <v>73</v>
+      </c>
+      <c r="J14" s="3">
+        <v>34</v>
+      </c>
+      <c r="K14" s="5">
+        <v>9</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="4">
+        <v>29861</v>
+      </c>
+      <c r="F15">
+        <v>33</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="I15" s="3">
+        <v>64</v>
+      </c>
+      <c r="J15" s="3">
+        <v>187</v>
+      </c>
+      <c r="K15" s="5">
+        <v>51</v>
+      </c>
+      <c r="L15" s="5">
+        <v>15</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="4">
+        <v>31968</v>
+      </c>
+      <c r="F16">
+        <v>27</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1.68</v>
+      </c>
+      <c r="I16" s="3">
+        <v>64</v>
+      </c>
+      <c r="J16" s="3">
+        <v>94</v>
+      </c>
+      <c r="K16" s="5">
+        <v>7</v>
+      </c>
+      <c r="L16" s="5">
+        <v>12</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="4">
+        <v>30956</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="I17" s="3">
+        <v>70</v>
+      </c>
+      <c r="J17" s="3">
+        <v>88</v>
+      </c>
+      <c r="K17" s="5">
+        <v>14</v>
+      </c>
+      <c r="L17" s="5">
+        <v>18</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://www.premierleague.com/en-gb/players/profile.overview.html/julian-speroni"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://www.premierleague.com/en-gb/players/profile.overview.html/joel-ward"/>
+    <hyperlink ref="A4" r:id="rId3" display="http://www.premierleague.com/en-gb/players/profile.overview.html/adrian-mariappa"/>
+    <hyperlink ref="A5" r:id="rId4" display="http://www.premierleague.com/en-gb/players/profile.overview.html/brede-hangeland"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://www.premierleague.com/en-gb/players/profile.overview.html/scott-dann"/>
+    <hyperlink ref="A7" r:id="rId6" display="http://www.premierleague.com/en-gb/players/profile.overview.html/yannick-bolasie-2"/>
+    <hyperlink ref="A8" r:id="rId7" display="http://www.premierleague.com/en-gb/players/profile.overview.html/kevin-doyle"/>
+    <hyperlink ref="A9" r:id="rId8" display="http://www.premierleague.com/en-gb/players/profile.overview.html/fraizer-campbell"/>
+    <hyperlink ref="A10" r:id="rId9" display="http://www.premierleague.com/en-gb/players/profile.overview.html/wilfried-zaha"/>
+    <hyperlink ref="A11" r:id="rId10" display="http://www.premierleague.com/en-gb/players/profile.overview.html/wayne-hennessey"/>
+    <hyperlink ref="A12" r:id="rId11" display="http://www.premierleague.com/en-gb/players/profile.overview.html/jerome-thomas"/>
+    <hyperlink ref="A13" r:id="rId12" display="http://www.premierleague.com/en-gb/players/profile.overview.html/mile-jedinak-2"/>
+    <hyperlink ref="A14" r:id="rId13" display="http://www.premierleague.com/en-gb/players/profile.overview.html/dwight-gayle"/>
+    <hyperlink ref="A15" r:id="rId14" display="http://www.premierleague.com/en-gb/players/profile.overview.html/andrew-johnson"/>
+    <hyperlink ref="A16" r:id="rId15" display="http://www.premierleague.com/en-gb/players/profile.overview.html/james-mcarthur"/>
+    <hyperlink ref="A17" r:id="rId16" display="http://www.premierleague.com/en-gb/players/profile.overview.html/marouane-chamakh"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId17"/>
 </worksheet>
 </file>